--- a/data/Subset 1/Borko.TranscriptofWholeClassDebrief.xlsx
+++ b/data/Subset 1/Borko.TranscriptofWholeClassDebrief.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Teacher Tag</t>
+          <t>T Tag</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -500,12 +500,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[Student 1], would you read it?</t>
+          <t>[S], would you read it?</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Student 1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -550,7 +550,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Student 1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -625,7 +625,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -650,7 +650,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Student 1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -675,7 +675,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -700,7 +700,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -800,12 +800,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>So, only two other groups besides [Student 1].</t>
+          <t>So, only two other groups besides [S].</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -825,7 +825,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -875,7 +875,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -900,12 +900,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[Student 3], who's the recorder/reporter?</t>
+          <t>[SN], who's the recorder/reporter?</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[Student 2], come on up.</t>
+          <t>[SN], come on up.</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -950,12 +950,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[Student 1], keep yours up there.</t>
+          <t>[S], keep yours up there.</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Student 2</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1175,7 +1175,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Student 2</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1250,7 +1250,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Student 2</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1350,7 +1350,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Student 2</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1450,7 +1450,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1500,12 +1500,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Um, [Student 3], hold yours for a minute because that's your person.</t>
+          <t>Um, [SN], hold yours for a minute because that's your person.</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1525,12 +1525,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[Student 1], do you want to rebuttal?</t>
+          <t>[S], do you want to rebuttal?</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Student 1</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1600,7 +1600,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1625,12 +1625,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Um, [Student 3], do you want to rebut him?</t>
+          <t>Um, [SN], do you want to rebut him?</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -1650,7 +1650,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Student 3</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1675,12 +1675,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Even though [Student 2] is up here.</t>
+          <t>Even though [SN] is up here.</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Student 3</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1725,12 +1725,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>So, are you saying that your group took [student 1]'s group number 5 situation and put it with A?</t>
+          <t>So, are you saying that your group took [S]'s group number 5 situation and put it with A?</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Student 3</t>
+          <t>SN</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1800,12 +1800,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[Student 1], would you take your number 5 just to be visual and would put it over here.</t>
+          <t>[S], would you take your number 5 just to be visual and would put it over here.</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1925,7 +1925,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Teacher</t>
+          <t>T</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
